--- a/AdvanceSelenium/src/test/resources/PropertiesFile.xlsx
+++ b/AdvanceSelenium/src/test/resources/PropertiesFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sipun\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268F6DC2-2DFC-4F8B-A967-14C57EAB5CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F016678-6F0E-4BB5-9E7F-528C9998CA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D1F7A53-AB01-493A-AE47-40C75DA3D3F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9D1F7A53-AB01-493A-AE47-40C75DA3D3F2}"/>
   </bookViews>
   <sheets>
     <sheet name="createCampaign" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>TC_ID</t>
   </si>
@@ -171,9 +171,6 @@
     <t>leadName</t>
   </si>
   <si>
-    <t>Das123</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -274,6 +271,12 @@
   </si>
   <si>
     <t>Aditya</t>
+  </si>
+  <si>
+    <t>HelloDas123</t>
+  </si>
+  <si>
+    <t>CAM00001</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030F4CF7-D028-44C5-8E2D-F163AE6F61AB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -980,13 +983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282438AC-7566-422C-9120-30FD5319290D}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -1012,115 +1015,117 @@
         <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P2" s="7">
         <v>751002</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="S2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
